--- a/public/downloads/mau-du-lieu-sat-lo.xlsx
+++ b/public/downloads/mau-du-lieu-sat-lo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Tọa độ</t>
   </si>
@@ -81,13 +81,43 @@
   </si>
   <si>
     <t>Đặc điểm thủy văn</t>
+  </si>
+  <si>
+    <t>Lê Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Đặc biệt nghiêm trọng</t>
+  </si>
+  <si>
+    <t>Thị Trấn Cà Mau</t>
+  </si>
+  <si>
+    <t>Xã Khánh Bình Tây</t>
+  </si>
+  <si>
+    <t>Huyện Trần Văn Thời</t>
+  </si>
+  <si>
+    <t>9.169269594,104.8655521</t>
+  </si>
+  <si>
+    <t>18-06-2016</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Sơn</t>
+  </si>
+  <si>
+    <t>9.162312057,104.8316959</t>
+  </si>
+  <si>
+    <t>28-02-2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +125,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF475569"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,14 +168,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE2E8F0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE2E8F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,15 +473,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -466,8 +540,79 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://csdlpcttcamau.netplus.vn/calamity/edit-river-bank/2867"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://csdlpcttcamau.netplus.vn/calamity/edit-river-bank/2866"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>